--- a/data/output/FV2304_FV2210/UTILMD/11095.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11095.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9452" uniqueCount="589">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9473" uniqueCount="589">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1887,6 +1887,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U454" totalsRowShown="0">
+  <autoFilter ref="A1:U454"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2176,7 +2206,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U454"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -22677,5 +22710,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/UTILMD/11095.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11095.xlsx
@@ -3636,7 +3636,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -3970,7 +3970,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -4104,7 +4104,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -4292,7 +4292,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -4584,7 +4584,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -4762,7 +4762,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -5122,7 +5122,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -5410,7 +5410,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -5590,7 +5590,7 @@
         <v>540</v>
       </c>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -5742,7 +5742,7 @@
         <v>541</v>
       </c>
       <c r="L46" s="4"/>
-      <c r="M46" s="2" t="s">
+      <c r="M46" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N46" s="2" t="s">
@@ -5924,7 +5924,7 @@
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="4"/>
-      <c r="M50" s="2" t="s">
+      <c r="M50" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -6112,7 +6112,7 @@
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -6298,7 +6298,7 @@
         <v>543</v>
       </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -6494,7 +6494,7 @@
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -6748,7 +6748,7 @@
         <v>540</v>
       </c>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -6878,7 +6878,7 @@
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -7028,7 +7028,7 @@
         <v>546</v>
       </c>
       <c r="L73" s="4"/>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -7498,7 +7498,7 @@
         <v>550</v>
       </c>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -7742,7 +7742,7 @@
       </c>
       <c r="K87" s="2"/>
       <c r="L87" s="4"/>
-      <c r="M87" s="2" t="s">
+      <c r="M87" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N87" s="2" t="s">
@@ -7922,7 +7922,7 @@
       </c>
       <c r="K91" s="2"/>
       <c r="L91" s="4"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -8058,7 +8058,7 @@
       </c>
       <c r="K94" s="2"/>
       <c r="L94" s="4"/>
-      <c r="M94" s="2" t="s">
+      <c r="M94" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N94" s="2" t="s">
@@ -8204,7 +8204,7 @@
       </c>
       <c r="K97" s="2"/>
       <c r="L97" s="4"/>
-      <c r="M97" s="2" t="s">
+      <c r="M97" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N97" s="2" t="s">
@@ -8456,7 +8456,7 @@
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="4"/>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="K106" s="2"/>
       <c r="L106" s="4"/>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N106" s="2" t="s">
@@ -8810,7 +8810,7 @@
         <v>540</v>
       </c>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -9084,7 +9084,7 @@
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="4"/>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N116" s="2" t="s">
@@ -9480,7 +9480,7 @@
         <v>552</v>
       </c>
       <c r="L124" s="4"/>
-      <c r="M124" s="2" t="s">
+      <c r="M124" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N124" s="2" t="s">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="K128" s="2"/>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="K134" s="2"/>
       <c r="L134" s="4"/>
-      <c r="M134" s="2" t="s">
+      <c r="M134" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N134" s="2" t="s">
@@ -10206,7 +10206,7 @@
       </c>
       <c r="K139" s="2"/>
       <c r="L139" s="4"/>
-      <c r="M139" s="2" t="s">
+      <c r="M139" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N139" s="2" t="s">
@@ -10398,7 +10398,7 @@
         <v>554</v>
       </c>
       <c r="L143" s="4"/>
-      <c r="M143" s="2" t="s">
+      <c r="M143" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N143" s="2" t="s">
@@ -10602,7 +10602,7 @@
       </c>
       <c r="K147" s="2"/>
       <c r="L147" s="4"/>
-      <c r="M147" s="2" t="s">
+      <c r="M147" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N147" s="2" t="s">
@@ -10738,7 +10738,7 @@
       </c>
       <c r="K150" s="2"/>
       <c r="L150" s="4"/>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N150" s="2" t="s">
@@ -11050,7 +11050,7 @@
         <v>555</v>
       </c>
       <c r="L156" s="4"/>
-      <c r="M156" s="2" t="s">
+      <c r="M156" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N156" s="2" t="s">
@@ -11184,7 +11184,7 @@
       </c>
       <c r="K159" s="2"/>
       <c r="L159" s="4"/>
-      <c r="M159" s="2" t="s">
+      <c r="M159" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N159" s="2" t="s">
@@ -11334,7 +11334,7 @@
       </c>
       <c r="K162" s="2"/>
       <c r="L162" s="4"/>
-      <c r="M162" s="2" t="s">
+      <c r="M162" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N162" s="2" t="s">
@@ -11530,7 +11530,7 @@
         <v>557</v>
       </c>
       <c r="L166" s="4"/>
-      <c r="M166" s="2" t="s">
+      <c r="M166" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N166" s="2" t="s">
@@ -11924,7 +11924,7 @@
       </c>
       <c r="K174" s="2"/>
       <c r="L174" s="4"/>
-      <c r="M174" s="2" t="s">
+      <c r="M174" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N174" s="2" t="s">
@@ -12060,7 +12060,7 @@
       </c>
       <c r="K177" s="2"/>
       <c r="L177" s="4"/>
-      <c r="M177" s="2" t="s">
+      <c r="M177" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N177" s="2" t="s">
@@ -12318,7 +12318,7 @@
         <v>558</v>
       </c>
       <c r="L182" s="4"/>
-      <c r="M182" s="2" t="s">
+      <c r="M182" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N182" s="2" t="s">
@@ -12452,7 +12452,7 @@
       </c>
       <c r="K185" s="2"/>
       <c r="L185" s="4"/>
-      <c r="M185" s="2" t="s">
+      <c r="M185" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N185" s="2" t="s">
@@ -12648,7 +12648,7 @@
         <v>559</v>
       </c>
       <c r="L189" s="4"/>
-      <c r="M189" s="2" t="s">
+      <c r="M189" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N189" s="2" t="s">
@@ -12778,7 +12778,7 @@
       </c>
       <c r="K192" s="2"/>
       <c r="L192" s="4"/>
-      <c r="M192" s="2" t="s">
+      <c r="M192" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N192" s="2" t="s">
@@ -12928,7 +12928,7 @@
         <v>560</v>
       </c>
       <c r="L195" s="4"/>
-      <c r="M195" s="2" t="s">
+      <c r="M195" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N195" s="2" t="s">
@@ -13058,7 +13058,7 @@
       </c>
       <c r="K198" s="2"/>
       <c r="L198" s="4"/>
-      <c r="M198" s="2" t="s">
+      <c r="M198" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N198" s="2" t="s">
@@ -13208,7 +13208,7 @@
       </c>
       <c r="K201" s="2"/>
       <c r="L201" s="4"/>
-      <c r="M201" s="2" t="s">
+      <c r="M201" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N201" s="2" t="s">
@@ -13402,7 +13402,7 @@
       </c>
       <c r="K205" s="2"/>
       <c r="L205" s="4"/>
-      <c r="M205" s="2" t="s">
+      <c r="M205" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N205" s="2" t="s">
@@ -13538,7 +13538,7 @@
       </c>
       <c r="K208" s="2"/>
       <c r="L208" s="4"/>
-      <c r="M208" s="2" t="s">
+      <c r="M208" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N208" s="2" t="s">
@@ -13688,7 +13688,7 @@
         <v>562</v>
       </c>
       <c r="L211" s="4"/>
-      <c r="M211" s="2" t="s">
+      <c r="M211" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N211" s="2" t="s">
@@ -13818,7 +13818,7 @@
       </c>
       <c r="K214" s="2"/>
       <c r="L214" s="4"/>
-      <c r="M214" s="2" t="s">
+      <c r="M214" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N214" s="2" t="s">
@@ -13970,7 +13970,7 @@
         <v>564</v>
       </c>
       <c r="L217" s="4"/>
-      <c r="M217" s="2" t="s">
+      <c r="M217" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N217" s="2" t="s">
@@ -14116,7 +14116,7 @@
       </c>
       <c r="K220" s="2"/>
       <c r="L220" s="4"/>
-      <c r="M220" s="2" t="s">
+      <c r="M220" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N220" s="2" t="s">
@@ -14252,7 +14252,7 @@
       </c>
       <c r="K223" s="2"/>
       <c r="L223" s="4"/>
-      <c r="M223" s="2" t="s">
+      <c r="M223" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N223" s="2" t="s">
@@ -14506,7 +14506,7 @@
       </c>
       <c r="K228" s="2"/>
       <c r="L228" s="4"/>
-      <c r="M228" s="2" t="s">
+      <c r="M228" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N228" s="2" t="s">
@@ -14650,7 +14650,7 @@
       </c>
       <c r="K231" s="2"/>
       <c r="L231" s="4"/>
-      <c r="M231" s="2" t="s">
+      <c r="M231" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N231" s="2" t="s">
@@ -15044,7 +15044,7 @@
         <v>565</v>
       </c>
       <c r="L239" s="4"/>
-      <c r="M239" s="2" t="s">
+      <c r="M239" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N239" s="2" t="s">
@@ -15174,7 +15174,7 @@
       </c>
       <c r="K242" s="2"/>
       <c r="L242" s="4"/>
-      <c r="M242" s="2" t="s">
+      <c r="M242" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N242" s="2" t="s">
@@ -15326,7 +15326,7 @@
         <v>566</v>
       </c>
       <c r="L245" s="4"/>
-      <c r="M245" s="2" t="s">
+      <c r="M245" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N245" s="2" t="s">
@@ -15472,7 +15472,7 @@
       </c>
       <c r="K248" s="2"/>
       <c r="L248" s="4"/>
-      <c r="M248" s="2" t="s">
+      <c r="M248" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N248" s="2" t="s">
@@ -16302,7 +16302,7 @@
       </c>
       <c r="K264" s="2"/>
       <c r="L264" s="4"/>
-      <c r="M264" s="2" t="s">
+      <c r="M264" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N264" s="2" t="s">
@@ -16450,7 +16450,7 @@
         <v>568</v>
       </c>
       <c r="L267" s="4"/>
-      <c r="M267" s="2" t="s">
+      <c r="M267" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N267" s="2" t="s">
@@ -16656,7 +16656,7 @@
       </c>
       <c r="K271" s="2"/>
       <c r="L271" s="4"/>
-      <c r="M271" s="2" t="s">
+      <c r="M271" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N271" s="2" t="s">
@@ -16806,7 +16806,7 @@
       </c>
       <c r="K274" s="2"/>
       <c r="L274" s="4"/>
-      <c r="M274" s="2" t="s">
+      <c r="M274" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N274" s="2" t="s">
@@ -17010,7 +17010,7 @@
         <v>569</v>
       </c>
       <c r="L278" s="4"/>
-      <c r="M278" s="2" t="s">
+      <c r="M278" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N278" s="2" t="s">
@@ -17298,7 +17298,7 @@
         <v>570</v>
       </c>
       <c r="L284" s="4"/>
-      <c r="M284" s="2" t="s">
+      <c r="M284" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N284" s="2" t="s">
@@ -17434,7 +17434,7 @@
         <v>571</v>
       </c>
       <c r="L287" s="4"/>
-      <c r="M287" s="2" t="s">
+      <c r="M287" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N287" s="2" t="s">
@@ -17640,7 +17640,7 @@
       </c>
       <c r="K291" s="2"/>
       <c r="L291" s="4"/>
-      <c r="M291" s="2" t="s">
+      <c r="M291" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N291" s="2" t="s">
@@ -17792,7 +17792,7 @@
         <v>573</v>
       </c>
       <c r="L294" s="4"/>
-      <c r="M294" s="2" t="s">
+      <c r="M294" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N294" s="2" t="s">
@@ -17940,7 +17940,7 @@
       </c>
       <c r="K297" s="2"/>
       <c r="L297" s="4"/>
-      <c r="M297" s="2" t="s">
+      <c r="M297" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N297" s="2" t="s">
@@ -18136,7 +18136,7 @@
         <v>575</v>
       </c>
       <c r="L301" s="4"/>
-      <c r="M301" s="2" t="s">
+      <c r="M301" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N301" s="2" t="s">
@@ -18532,7 +18532,7 @@
         <v>576</v>
       </c>
       <c r="L309" s="4"/>
-      <c r="M309" s="2" t="s">
+      <c r="M309" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N309" s="2" t="s">
@@ -18858,7 +18858,7 @@
         <v>577</v>
       </c>
       <c r="L316" s="4"/>
-      <c r="M316" s="2" t="s">
+      <c r="M316" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N316" s="2" t="s">
@@ -19046,7 +19046,7 @@
         <v>578</v>
       </c>
       <c r="L320" s="4"/>
-      <c r="M320" s="2" t="s">
+      <c r="M320" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N320" s="2" t="s">
@@ -19176,7 +19176,7 @@
       </c>
       <c r="K323" s="2"/>
       <c r="L323" s="4"/>
-      <c r="M323" s="2" t="s">
+      <c r="M323" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N323" s="2" t="s">
@@ -19320,7 +19320,7 @@
       </c>
       <c r="K326" s="2"/>
       <c r="L326" s="4"/>
-      <c r="M326" s="2" t="s">
+      <c r="M326" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N326" s="2" t="s">
@@ -19458,7 +19458,7 @@
         <v>579</v>
       </c>
       <c r="L329" s="4"/>
-      <c r="M329" s="2" t="s">
+      <c r="M329" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N329" s="2" t="s">
@@ -19606,7 +19606,7 @@
       </c>
       <c r="K332" s="2"/>
       <c r="L332" s="4"/>
-      <c r="M332" s="2" t="s">
+      <c r="M332" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N332" s="2" t="s">
@@ -19918,7 +19918,7 @@
         <v>581</v>
       </c>
       <c r="L338" s="4"/>
-      <c r="M338" s="2" t="s">
+      <c r="M338" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N338" s="2" t="s">
@@ -20052,7 +20052,7 @@
       </c>
       <c r="K341" s="2"/>
       <c r="L341" s="4"/>
-      <c r="M341" s="2" t="s">
+      <c r="M341" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N341" s="2" t="s">
@@ -20196,7 +20196,7 @@
       </c>
       <c r="K344" s="2"/>
       <c r="L344" s="4"/>
-      <c r="M344" s="2" t="s">
+      <c r="M344" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N344" s="2" t="s">
@@ -20332,7 +20332,7 @@
       </c>
       <c r="K347" s="2"/>
       <c r="L347" s="4"/>
-      <c r="M347" s="2" t="s">
+      <c r="M347" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N347" s="2" t="s">
@@ -20478,7 +20478,7 @@
       </c>
       <c r="K350" s="2"/>
       <c r="L350" s="4"/>
-      <c r="M350" s="2" t="s">
+      <c r="M350" s="3" t="s">
         <v>92</v>
       </c>
       <c r="N350" s="2" t="s">
@@ -20844,7 +20844,7 @@
         <v>578</v>
       </c>
       <c r="L357" s="4"/>
-      <c r="M357" s="2" t="s">
+      <c r="M357" s="3" t="s">
         <v>93</v>
       </c>
       <c r="N357" s="2" t="s">
@@ -20978,7 +20978,7 @@
       </c>
       <c r="K360" s="2"/>
       <c r="L360" s="4"/>
-      <c r="M360" s="2" t="s">
+      <c r="M360" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N360" s="2" t="s">
@@ -21122,7 +21122,7 @@
       </c>
       <c r="K363" s="2"/>
       <c r="L363" s="4"/>
-      <c r="M363" s="2" t="s">
+      <c r="M363" s="3" t="s">
         <v>94</v>
       </c>
       <c r="N363" s="2" t="s">
@@ -21258,7 +21258,7 @@
       </c>
       <c r="K366" s="2"/>
       <c r="L366" s="4"/>
-      <c r="M366" s="2" t="s">
+      <c r="M366" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N366" s="2" t="s">
@@ -21404,7 +21404,7 @@
       </c>
       <c r="K369" s="2"/>
       <c r="L369" s="4"/>
-      <c r="M369" s="2" t="s">
+      <c r="M369" s="3" t="s">
         <v>95</v>
       </c>
       <c r="N369" s="2" t="s">
@@ -21554,7 +21554,7 @@
         <v>578</v>
       </c>
       <c r="L372" s="4"/>
-      <c r="M372" s="2" t="s">
+      <c r="M372" s="3" t="s">
         <v>96</v>
       </c>
       <c r="N372" s="2" t="s">
@@ -21818,7 +21818,7 @@
       </c>
       <c r="K378" s="2"/>
       <c r="L378" s="4"/>
-      <c r="M378" s="2" t="s">
+      <c r="M378" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N378" s="2" t="s">
@@ -21968,7 +21968,7 @@
         <v>583</v>
       </c>
       <c r="L381" s="4"/>
-      <c r="M381" s="2" t="s">
+      <c r="M381" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N381" s="2" t="s">
@@ -22098,7 +22098,7 @@
       </c>
       <c r="K384" s="2"/>
       <c r="L384" s="4"/>
-      <c r="M384" s="2" t="s">
+      <c r="M384" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N384" s="2" t="s">
@@ -22244,7 +22244,7 @@
       </c>
       <c r="K387" s="2"/>
       <c r="L387" s="4"/>
-      <c r="M387" s="2" t="s">
+      <c r="M387" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N387" s="2" t="s">
@@ -22392,7 +22392,7 @@
       </c>
       <c r="K390" s="2"/>
       <c r="L390" s="4"/>
-      <c r="M390" s="2" t="s">
+      <c r="M390" s="3" t="s">
         <v>98</v>
       </c>
       <c r="N390" s="2" t="s">
@@ -22528,7 +22528,7 @@
       </c>
       <c r="K393" s="2"/>
       <c r="L393" s="4"/>
-      <c r="M393" s="2" t="s">
+      <c r="M393" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N393" s="2" t="s">
@@ -22678,7 +22678,7 @@
         <v>584</v>
       </c>
       <c r="L396" s="4"/>
-      <c r="M396" s="2" t="s">
+      <c r="M396" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N396" s="2" t="s">
@@ -22808,7 +22808,7 @@
       </c>
       <c r="K399" s="2"/>
       <c r="L399" s="4"/>
-      <c r="M399" s="2" t="s">
+      <c r="M399" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N399" s="2" t="s">
@@ -22956,7 +22956,7 @@
       </c>
       <c r="K402" s="2"/>
       <c r="L402" s="4"/>
-      <c r="M402" s="2" t="s">
+      <c r="M402" s="3" t="s">
         <v>100</v>
       </c>
       <c r="N402" s="2" t="s">
@@ -23230,7 +23230,7 @@
         <v>585</v>
       </c>
       <c r="L408" s="4"/>
-      <c r="M408" s="2" t="s">
+      <c r="M408" s="3" t="s">
         <v>101</v>
       </c>
       <c r="N408" s="2" t="s">
@@ -23360,7 +23360,7 @@
       </c>
       <c r="K411" s="2"/>
       <c r="L411" s="4"/>
-      <c r="M411" s="2" t="s">
+      <c r="M411" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N411" s="2" t="s">
@@ -23508,7 +23508,7 @@
       </c>
       <c r="K414" s="2"/>
       <c r="L414" s="4"/>
-      <c r="M414" s="2" t="s">
+      <c r="M414" s="3" t="s">
         <v>102</v>
       </c>
       <c r="N414" s="2" t="s">
@@ -23734,7 +23734,7 @@
       </c>
       <c r="K419" s="2"/>
       <c r="L419" s="4"/>
-      <c r="M419" s="2" t="s">
+      <c r="M419" s="3" t="s">
         <v>103</v>
       </c>
       <c r="N419" s="2" t="s">
@@ -24064,7 +24064,7 @@
       </c>
       <c r="K426" s="2"/>
       <c r="L426" s="4"/>
-      <c r="M426" s="2" t="s">
+      <c r="M426" s="3" t="s">
         <v>104</v>
       </c>
       <c r="N426" s="2" t="s">
@@ -24408,7 +24408,7 @@
         <v>587</v>
       </c>
       <c r="L433" s="4"/>
-      <c r="M433" s="2" t="s">
+      <c r="M433" s="3" t="s">
         <v>105</v>
       </c>
       <c r="N433" s="2" t="s">
@@ -24538,7 +24538,7 @@
       </c>
       <c r="K436" s="2"/>
       <c r="L436" s="4"/>
-      <c r="M436" s="2" t="s">
+      <c r="M436" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N436" s="2" t="s">
@@ -24686,7 +24686,7 @@
       </c>
       <c r="K439" s="2"/>
       <c r="L439" s="4"/>
-      <c r="M439" s="2" t="s">
+      <c r="M439" s="3" t="s">
         <v>106</v>
       </c>
       <c r="N439" s="2" t="s">
@@ -24910,7 +24910,7 @@
         <v>588</v>
       </c>
       <c r="L444" s="4"/>
-      <c r="M444" s="2" t="s">
+      <c r="M444" s="3" t="s">
         <v>107</v>
       </c>
       <c r="N444" s="2" t="s">
@@ -25292,7 +25292,7 @@
       </c>
       <c r="K452" s="2"/>
       <c r="L452" s="4"/>
-      <c r="M452" s="2" t="s">
+      <c r="M452" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N452" s="2"/>
